--- a/testcases/DataAndPrivacy.xlsx
+++ b/testcases/DataAndPrivacy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\luxetrainee\cypress_cucumber\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5AA4D-603D-4264-A6C7-85B81CCAA245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A79808-526B-4157-81EC-DF2AB12CB819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10635" yWindow="4650" windowWidth="15555" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>page scrolled</t>
   </si>
   <si>
-    <t>Click "Careers" link</t>
-  </si>
-  <si>
     <t>Redirect to https://telnyx.com/company/data-privacy   To the right of the heading "Data &amp; Privacy" should be an image</t>
+  </si>
+  <si>
+    <t>Click "Data &amp; Privacy" link</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
